--- a/03_BOM/obc_ver2_Jan22.xlsx
+++ b/03_BOM/obc_ver2_Jan22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\2_OBC_V2\NANORACK_V2_OBC_HW_CAMDOAN\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E3DD1-9710-4AB2-BAAA-101E9350D3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3D0D4-E9BD-4D34-A337-B8A68D0C619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F9CDEF5-9BB1-4B30-BAD8-797910020924}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="193">
   <si>
     <t>Name</t>
   </si>
@@ -74,12 +74,6 @@
     <t>CAP_C_1005X60</t>
   </si>
   <si>
-    <t>Murata Electronics</t>
-  </si>
-  <si>
-    <t>GCM155R71C224KE02D</t>
-  </si>
-  <si>
     <t>10uF/6.3V</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>CAP_MP_2012X170</t>
   </si>
   <si>
-    <t>Vishay Sprague</t>
-  </si>
-  <si>
-    <t>TP8R106M016C</t>
-  </si>
-  <si>
     <t>10uF/10V</t>
   </si>
   <si>
@@ -125,27 +113,18 @@
     <t>C28, C29, C49, C50, C94, C95, C186, C187</t>
   </si>
   <si>
-    <t>TP8M475M010C</t>
-  </si>
-  <si>
     <t>20pF/6.3V</t>
   </si>
   <si>
     <t>C84, C85</t>
   </si>
   <si>
-    <t>GCM1555C1H200GA16D</t>
-  </si>
-  <si>
     <t>4.7 µF ±20% 6.3V Ceramic Capacitor X7T 0402 (1005 Metric): GRT155D70J475ME13J</t>
   </si>
   <si>
     <t>C180, C181, C182, C188, C189, C190</t>
   </si>
   <si>
-    <t>GRT155D70J475ME13J</t>
-  </si>
-  <si>
     <t>C185, C193</t>
   </si>
   <si>
@@ -155,9 +134,6 @@
     <t>C223, C224</t>
   </si>
   <si>
-    <t>GJM1555C1H160FB01J</t>
-  </si>
-  <si>
     <t>150060YS75000</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t>WL-SMCW_0603_150060xx75000</t>
   </si>
   <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
     <t>USBLC6-2SC6</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t>SOT95P280X145-6N</t>
   </si>
   <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
     <t>150060GS75000</t>
   </si>
   <si>
@@ -218,9 +188,6 @@
     <t>MOLX-53261-0271_V</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
     <t>JP1</t>
   </si>
   <si>
@@ -296,12 +263,6 @@
     <t>M.2 M Key socket</t>
   </si>
   <si>
-    <t>JAE Electronics</t>
-  </si>
-  <si>
-    <t>SM3ZS067U310AMR1200</t>
-  </si>
-  <si>
     <t>77313-101-14LF</t>
   </si>
   <si>
@@ -416,9 +377,6 @@
     <t>FP-5006-MFG</t>
   </si>
   <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
     <t>TPS7A4533DCQR</t>
   </si>
   <si>
@@ -431,9 +389,6 @@
     <t>DCQ0006A_M</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>LMS1587ISX-3.3/NOPB</t>
   </si>
   <si>
@@ -446,9 +401,6 @@
     <t>TS3B_L</t>
   </si>
   <si>
-    <t>TI National Semiconductor</t>
-  </si>
-  <si>
     <t>MTFC32GAZAQDW-AAT</t>
   </si>
   <si>
@@ -458,9 +410,6 @@
     <t>BGA_100_C_100P_10X17_1400X1800X150</t>
   </si>
   <si>
-    <t>Micron Technology</t>
-  </si>
-  <si>
     <t>TS3A27518ETRTWRQ1</t>
   </si>
   <si>
@@ -506,9 +455,6 @@
     <t>SOIC127P602X173-8N</t>
   </si>
   <si>
-    <t>Fujitsu</t>
-  </si>
-  <si>
     <t>MX25L8006EM1I-12G</t>
   </si>
   <si>
@@ -518,9 +464,6 @@
     <t>U11, U12</t>
   </si>
   <si>
-    <t>Macronix</t>
-  </si>
-  <si>
     <t>USB2642-I/ML</t>
   </si>
   <si>
@@ -533,9 +476,6 @@
     <t>FP-48QFN-5304-7x7B-IPC_A</t>
   </si>
   <si>
-    <t>Microchip</t>
-  </si>
-  <si>
     <t>24LC04BT-E/SN</t>
   </si>
   <si>
@@ -557,9 +497,6 @@
     <t>U15, U16, U24, U25, U27</t>
   </si>
   <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
     <t>ISO1042BQDWVRQ1</t>
   </si>
   <si>
@@ -593,9 +530,6 @@
     <t>BSSOP_65P_750W_28</t>
   </si>
   <si>
-    <t>ISOUSB211DPR</t>
-  </si>
-  <si>
     <t>FSUSB42MUX</t>
   </si>
   <si>
@@ -608,9 +542,6 @@
     <t>FP-846AP-MFG</t>
   </si>
   <si>
-    <t>ON Semiconductor / Fairchild</t>
-  </si>
-  <si>
     <t>MAX14431CAEE+</t>
   </si>
   <si>
@@ -653,9 +584,6 @@
     <t>XTAL_ECS-240-12-37B-CKY-TR</t>
   </si>
   <si>
-    <t>ECS International</t>
-  </si>
-  <si>
     <t>ECS-327ATQMV-AS-TR</t>
   </si>
   <si>
@@ -678,6 +606,18 @@
   </si>
   <si>
     <t>XTAL_ECS-250-12-33Q-JES-TR</t>
+  </si>
+  <si>
+    <t>CM4, CM4B</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V(51)</t>
+  </si>
+  <si>
+    <t>CM4 Module</t>
   </si>
 </sst>
 </file>
@@ -693,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,12 +680,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,17 +1021,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD67C4-23A3-458B-A656-3CE46EA779BE}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
-    <col min="2" max="2" width="40.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" customWidth="1"/>
     <col min="7" max="7" width="23.59765625" customWidth="1"/>
   </cols>
@@ -1128,68 +1077,56 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>157</v>
@@ -1197,64 +1134,56 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1262,22 +1191,18 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -1285,22 +1210,18 @@
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1308,22 +1229,18 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1331,1013 +1248,933 @@
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
         <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1">
         <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1">
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_BOM/obc_ver2_Jan22.xlsx
+++ b/03_BOM/obc_ver2_Jan22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\2_OBC_V2\NANORACK_V2_OBC_HW_CAMDOAN\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3D0D4-E9BD-4D34-A337-B8A68D0C619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C229B56F-CE2B-45E6-88FA-5BCD02A0C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F9CDEF5-9BB1-4B30-BAD8-797910020924}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -618,6 +618,9 @@
   </si>
   <si>
     <t>CM4 Module</t>
+  </si>
+  <si>
+    <t>SM3ZS067U410-NUT1-R1200</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD67C4-23A3-458B-A656-3CE46EA779BE}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2174,7 +2177,9 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
